--- a/Cursos/Python/webscraping/Automatizando as Buscas na Web/noticia.xlsx
+++ b/Cursos/Python/webscraping/Automatizando as Buscas na Web/noticia.xlsx
@@ -453,149 +453,137 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Após dizer 'boto a cara no fogo', Bolsonaro rifa ex-ministro preso</t>
+          <t>Suspeita sobre atuação de Bolsonaro leva caso Milton Ribeiro ao STF</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/politica/noticia/2022/06/22/de-boto-minha-cara-no-fogo-pelo-milton-a-responda-pelos-atos-dele-as-declaracoes-de-bolsonaro-antes-e-depois-da-prisao-do-ex-ministro-da-educacao.ghtml</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>&lt;a class="gui-color-primary gui-color-hover feed-post-body-title bstn-relatedtext" href="https://g1.globo.com/df/distrito-federal/noticia/2022/06/22/defesa-de-milton-ribeiro-diz-nao-ver-motivo-concreto-para-prisao-de-ex-ministro.ghtml"&gt;Defesa de Ribeiro diz que prisão é injusta e sem motivo&lt;/a&gt;</t>
-        </is>
-      </c>
+          <t>https://g1.globo.com/politica/noticia/2022/06/24/justica-federal-envia-investigacao-contra-milton-ribeiro-para-stf-por-possivel-interferencia-de-autoridade-com-foro-privilegiado.ghtml</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>VÍDEO: horas antes de ser preso, pastor cobrou fiéis por reforma</t>
+          <t>NATUZA NERY: Milton Ribeiro teve tempo de limpar a cena do crime</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/go/goias/noticia/2022/06/22/pastor-suspeito-de-participar-de-gabinete-paralelo-do-mec-cobrou-fieis-por-reforma-em-igreja-horas-antes-de-operacao-da-pf.ghtml</t>
+          <t>https://g1.globo.com/globonews/estudio-i/video/bolsonaro-pode-ter-obstruido-investigacao-para-ajudar-um-ex-ministro-diz-natuza-10700117.ghtml</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>&lt;a class="gui-color-primary gui-color-hover feed-post-body-title bstn-relatedtext" href="https://g1.globo.com/politica/noticia/2022/03/22/quem-sao-os-pastores-cujos-pedidos-bolsonaro-teria-mandado-ministro-da-educacao-priorizar.ghtml"&gt;Quem são os pastores para os quais Bolsonaro teria pedido prioridade&lt;/a&gt;</t>
+          <t>&lt;a class="gui-color-primary gui-color-hover feed-post-body-title bstn-relatedtext" href="https://g1.globo.com/politica/blog/valdo-cruz/post/2022/06/24/oposicao-vai-pedir-abertura-de-inquerito-no-stf-para-investigar-bolsonaro-por-violacao-de-sigilo-e-obstrucao-de-justica.ghtml"&gt;VALDO CRUZ: oposição vai pedir que STF investigue Bolsonaro&lt;/a&gt;</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NATUZA NERY: prisão é tiro de canhão no discurso de Bolsonaro</t>
+          <t xml:space="preserve">Datafolha: 70% estão decididos em quem votar para presidente </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/globonews/estudio-i/video/natuza-sobre-operacao-que-prendeu-milton-um-tiro-de-canhao-no-discurso-de-bolsonaro-10692885.ghtml</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>&lt;a class="gui-color-primary gui-color-hover feed-post-body-title bstn-relatedtext" href="https://g1.globo.com/politica/blog/andreia-sadi/post/2022/06/22/prisao-de-milton-atinge-base-de-apoio-e-desmonta-estrategias-eleitorais-de-bolsonaro.ghtml"&gt;ANDRÉIA SADI: tsunami atinge campanha bolsonarista a 100 dias da eleição&lt;/a&gt;</t>
-        </is>
-      </c>
+          <t>https://g1.globo.com/politica/eleicoes/2022/pesquisa-eleitoral/noticia/2022/06/24/datafolha-70percent-dos-brasileiros-estao-totalmente-decididos-em-quem-votar-para-presidente.ghtml</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Polícia pede prisão de agressor de procuradora em SP</t>
+          <t>O que muda nos EUA após Suprema Corte derrubar direito ao aborto</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/sp/santos-regiao/noticia/2022/06/22/policia-civil-pede-prisao-preventiva-de-agressor-de-procuradora-geral-no-interior-de-sp.ghtml</t>
+          <t>https://g1.globo.com/mundo/noticia/2022/06/24/aborto-nos-eua-entenda-o-que-era-a-decisao-que-garantia-direito-ao-procedimento-e-como-foi-derrubada.ghtml</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>&lt;a class="gui-color-primary gui-color-hover feed-post-body-title bstn-relatedtext" href="https://g1.globo.com/sp/santos-regiao/noticia/2022/06/22/agressor-de-promotora-foi-suspenso-e-teve-salario-cortado.ghtml"&gt;Procurador que espancou chefe é suspenso e tem salário cortado&lt;/a&gt;</t>
+          <t>&lt;a class="gui-color-primary gui-color-hover feed-post-body-title bstn-relatedtext" href="https://g1.globo.com/mundo/noticia/2022/06/24/estados-americanos-comecam-a-se-posicionar-sobre-o-aborto-veja-quais-vao-proibir-e-quais-vao-manter-o-direito.ghtml"&gt;Estados começam a se posicionar; veja quais vão proibir ou manter o direito&lt;/a&gt;</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Edi Rock é acusado de estupro por sexóloga; rapper nega</t>
+          <t>Biden reage: 'Precisamos tornar lei o direito ao aborto'</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/sp/sao-paulo/noticia/2022/06/22/edi-rock-do-racionais-mcs-e-acusado-de-estupro-por-influencer-rapper-nega.ghtml</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>https://g1.globo.com/mundo/noticia/2022/06/24/precisamos-transformar-em-lei-o-direito-ao-aborto-diz-biden-apos-decisao-da-suprema-corte.ghtml</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>&lt;a class="gui-color-primary gui-color-hover feed-post-body-title bstn-relatedtext" href="https://g1.globo.com/mundo/blog/sandra-cohen/post/2022/06/24/derrubada-do-direito-ao-aborto-consolida-os-eua-como-um-campo-ideologico-de-batalha.ghtml"&gt;SANDRA COHEN: Guerra ideológica se consolida nos EUA pós-Trump&lt;/a&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PF apura ligação de Amarildo com quadrilhas de pesca ilegal</t>
+          <t>'Meu filho volta com fome': mães denunciam falhas na merenda</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/am/amazonas/noticia/2022/06/22/pf-apura-se-amarildo-tem-envolvimento-com-quadrilhas-que-praticam-pesca-ilegal-no-vale-do-javari.ghtml</t>
+          <t>https://g1.globo.com/educacao/noticia/2022/06/24/palco-de-escandalo-no-mec-fnde-nao-compensa-inflacao-ao-repassar-verba-de-merenda-meu-filho-volta-da-escola-com-fome-diz-mae.ghtml</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>&lt;a class="gui-color-primary gui-color-hover feed-post-body-title bstn-relatedtext" href="https://g1.globo.com/politica/noticia/2022/06/22/entidade-indigena-da-regiao-onde-bruno-e-dom-foram-mortos-diz-ser-marcada-e-temer-nova-catastrofe.ghtml"&gt;Caso Bruno e Dom: entidade indígena diz temer nova 'catástrofe'&lt;/a&gt;</t>
+          <t>&lt;a class="gui-color-primary gui-color-hover feed-post-body-title bstn-relatedtext" href="https://colabore.apps.globo.com/campanha/2097"&gt;Como é a merenda na escola da sua região? Mande relatos e fotos&lt;/a&gt;</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>'Te matam, não tão nem aí', diz amigo de Bruno ameaçado</t>
+          <t>Varíola dos macacos: SP e Rio já registram transmissão local</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/profissao-reporter/noticia/2022/06/22/a-gente-faz-apreensao-e-os-caras-ficam-com-raiva-da-gente-te-mata-nao-tao-nem-ai-lamenta-amigo-de-bruno-pereira.ghtml</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>&lt;a class="gui-color-primary gui-color-hover feed-post-body-title bstn-relatedtext" href="https://g1.globo.com/profissao-reporter/noticia/2022/06/22/assassinato-de-bruno-pereira-e-dom-phillips-profissao-reporter-acompanhou-buscas-no-vale-do-javari.ghtml"&gt;Imagens inéditas mostram buscas pelos corpos de indigenista e jornalista&lt;/a&gt;</t>
-        </is>
-      </c>
+          <t>https://g1.globo.com/rj/rio-de-janeiro/noticia/2022/06/24/variola-dos-macacos-secretaria-municipal-de-saude-confirma-transmissao-comunitaria-no-rio.ghtml</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MPF recomenda que hospital faça aborto em menina vítima de estupro</t>
+          <t>Mulheres provam que são negras e entram para o Itamaraty</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/sc/santa-catarina/noticia/2022/06/22/mpf-recomenda-que-hospital-de-sc-faca-aborto-em-menina-estuprada.ghtml</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>&lt;a class="gui-color-primary gui-color-hover feed-post-body-title bstn-relatedtext" href="https://g1.globo.com/sc/santa-catarina/noticia/2022/06/21/aborto-nao-deixa-de-ser-legal-apos-20-semanas-de-gravidez-entenda-o-que-diz-a-lei.ghtml"&gt;Criança estuprada tem direito ao aborto legal; veja o que diz a lei&lt;/a&gt;</t>
-        </is>
-      </c>
+          <t>https://g1.globo.com/df/distrito-federal/noticia/2022/06/24/candidatas-do-df-sao-aprovadas-para-o-itamaraty-pelo-sistema-de-cotas-apos-provarem-que-sao-negras.ghtml</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quem é Joana Ribeiro, a juíza que negou aborto legal a criança </t>
+          <t>Após calor no inverno, frente fria derruba temperatura em SP</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/sc/santa-catarina/noticia/2022/06/22/quem-e-joana-ribeiro-zimmer-juiza-que-impediu-o-aborto-de-uma-menina-de-11-anos-que-foi-estuprada.ghtml</t>
+          <t>https://g1.globo.com/sp/sao-paulo/noticia/2022/06/24/chegada-de-frente-fria-derruba-temperaturas-na-cidade-de-sao-paulo-neste-final-de-semana.ghtml</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>&lt;a class="gui-color-primary gui-color-hover feed-post-body-title bstn-relatedtext" href="https://g1.globo.com/sc/santa-catarina/noticia/2022/06/21/suportaria-ficar-mais-um-pouquinho-queres-escolher-um-nome-para-o-bebe-as-frases-da-juiza-joana-ribeiro-zimmer-para-menina-de-11-anos-estuprada.ghtml"&gt;'Suportaria ficar mais um pouquinho?': como a juíza tentou manipular menina&lt;/a&gt;</t>
+          <t>&lt;a class="gui-color-primary gui-color-hover feed-post-body-title bstn-relatedtext" href="https://g1.globo.com/previsao-do-tempo/"&gt;Veja como fica o tempo na sua cidade&lt;/a&gt;</t>
         </is>
       </c>
     </row>
